--- a/config_Release/qhb_hall_config.xlsx
+++ b/config_Release/qhb_hall_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JY\JyQipai_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,11 +84,11 @@
     <t>富甲一方</t>
   </si>
   <si>
-    <t>20000,</t>
+    <t>200000,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>500000,</t>
+    <t>5000000,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,12 +158,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -223,9 +217,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -242,6 +233,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -552,7 +546,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -622,7 +616,7 @@
       <c r="F2">
         <v>-1</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
@@ -651,13 +645,13 @@
       <c r="F3">
         <v>-1</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J3" t="s">
@@ -686,13 +680,13 @@
       <c r="F4">
         <v>-1</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="J4" t="s">
@@ -706,78 +700,78 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="9"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
